--- a/data/trans_camb/POLIPATOLOGIA_2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.655533905816976</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>17.52712186628614</v>
+        <v>17.52712186628612</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.281570326022658</v>
@@ -664,7 +664,7 @@
         <v>5.66938004297074</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>16.68846268518102</v>
+        <v>16.68846268518101</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.22778237554192</v>
+        <v>-1.761421248915624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.903710280115221</v>
+        <v>1.354403460863948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.938343666505931</v>
+        <v>9.820379103849287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.885162740618638</v>
+        <v>-7.252485408131777</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.198108062205708</v>
+        <v>-3.525734214503625</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.87738617983237</v>
+        <v>10.70584718415573</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.689251611845856</v>
+        <v>-2.207597716765826</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.62509367623236</v>
+        <v>1.517410371025138</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.62277638516449</v>
+        <v>12.78489701996289</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.86526260970258</v>
+        <v>9.455694848295913</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.22266039275996</v>
+        <v>12.52735306155914</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.00776601371915</v>
+        <v>20.40823998490634</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.277798494723406</v>
+        <v>6.070313092535351</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.418558097122233</v>
+        <v>10.5074315204075</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.99945399192692</v>
+        <v>23.32022364012801</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.295484546064698</v>
+        <v>5.967533226409121</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.894895450801346</v>
+        <v>9.771570321536993</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.67126745950139</v>
+        <v>20.63170146462037</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1196185854092821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7895096045841048</v>
+        <v>0.7895096045841042</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.125624783035801</v>
@@ -769,7 +769,7 @@
         <v>0.3121598443503891</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9188778799037144</v>
+        <v>0.9188778799037141</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07158111215320793</v>
+        <v>-0.1122585843888814</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.10535119704921</v>
+        <v>0.06574974124172095</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5608379650012061</v>
+        <v>0.5309541819972987</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2786809893064002</v>
+        <v>-0.2826181538181031</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1605051349587894</v>
+        <v>-0.1466275410687048</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4426322806260353</v>
+        <v>0.3970245301206056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08380002004933215</v>
+        <v>-0.108237200914226</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08054576885972237</v>
+        <v>0.06885253597782792</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6111259884470283</v>
+        <v>0.6126057958548988</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7693537508672287</v>
+        <v>0.7172425555102129</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9985205179206571</v>
+        <v>0.9112585009036407</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.539707601616694</v>
+        <v>1.542407501261253</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.336710657845704</v>
+        <v>0.3352881264307818</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4884734068339825</v>
+        <v>0.5654449323954719</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.286487855480585</v>
+        <v>1.265774549274592</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4024552254340727</v>
+        <v>0.3828851489222134</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6004911963854731</v>
+        <v>0.5923063224934857</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.273991786296328</v>
+        <v>1.294081615925894</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.419148054877826</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>16.20520023892125</v>
+        <v>16.20520023892124</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.803361628760338</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.08729518422448632</v>
+        <v>0.04316087287372022</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6859614515989158</v>
+        <v>0.5236777367526163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12.74372562037505</v>
+        <v>12.39412425520838</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.865408414832439</v>
+        <v>-3.767188180031177</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.537927310425893</v>
+        <v>-9.102973806032152</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.683410921481348</v>
+        <v>10.32891720337333</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5797383533944823</v>
+        <v>-0.2756106775140386</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.388661041621384</v>
+        <v>-3.024578233870623</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.3290445306688</v>
+        <v>12.58576990828244</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.32685243742167</v>
+        <v>10.72565551351501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.30779906442581</v>
+        <v>11.3397234955463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24.0176050564007</v>
+        <v>23.91474940477178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.17304102775624</v>
+        <v>10.05106704697512</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.947831044248026</v>
+        <v>3.512925423944063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.25456790457248</v>
+        <v>22.65629331292321</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.848477205662957</v>
+        <v>8.315261816490741</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.010579129251785</v>
+        <v>6.435872548325375</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.65553676092142</v>
+        <v>20.88899333004087</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.09818503035028853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6577142205425461</v>
+        <v>0.6577142205425457</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1917869503611221</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01997675284308261</v>
+        <v>-0.007279167319787677</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.03207999871084677</v>
+        <v>0.0281783062010507</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7227006718965673</v>
+        <v>0.6747228614599333</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.137403772486233</v>
+        <v>-0.1312616527113076</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.33914221480639</v>
+        <v>-0.3161121817782481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3376415816944145</v>
+        <v>0.3579999982192142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03497216097801126</v>
+        <v>-0.01501388536683478</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1080114615066538</v>
+        <v>-0.1369796644968381</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5462345276410964</v>
+        <v>0.5565645093391074</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9018388301463125</v>
+        <v>0.8715120336161694</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.009125268775787</v>
+        <v>0.9354411196306077</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.047140548285555</v>
+        <v>1.937353114793551</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4308253473195054</v>
+        <v>0.4673819013010551</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1851466314407316</v>
+        <v>0.1756758850923639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.036441950056878</v>
+        <v>1.081837877104853</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.431412092053796</v>
+        <v>0.464642895941008</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3361627503227444</v>
+        <v>0.3694617847129248</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.155295189684474</v>
+        <v>1.192828999217941</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.735744830416907</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12.90809656636911</v>
+        <v>12.9080965663691</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.199154662167398</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.431348734728826</v>
+        <v>2.732761409148804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.161880515323085</v>
+        <v>-0.778726811507321</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.630124334072392</v>
+        <v>7.590924557557094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.153172727504805</v>
+        <v>-4.981508639600611</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.650580938133815</v>
+        <v>-8.310087902703039</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.89722982962854</v>
+        <v>12.61602163218823</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.615860665583405</v>
+        <v>3.277734218116891</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03740280277433241</v>
+        <v>-0.196363626469043</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>10.57646833870923</v>
+        <v>11.3548694310029</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.32974611598357</v>
+        <v>13.02597766074181</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.682758133690704</v>
+        <v>9.826765183776658</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.44601632107683</v>
+        <v>18.64330156449313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.8244172917588</v>
+        <v>13.50327775459803</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.56372785796979</v>
+        <v>13.14026590035629</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.4488047073183</v>
+        <v>31.83685446447819</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.67997624333389</v>
+        <v>12.08448243446954</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.236511906022235</v>
+        <v>9.508213451090301</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.73932157867056</v>
+        <v>20.75525308368728</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2097749449124541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5717781137072664</v>
+        <v>0.5717781137072659</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1260141360498976</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09315224223546095</v>
+        <v>0.1065354619668021</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04369395123510254</v>
+        <v>-0.02535336240547881</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2808022044650978</v>
+        <v>0.3041797547757338</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1561138262193418</v>
+        <v>-0.1242371360222128</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2044579820578172</v>
+        <v>-0.2191288895673604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3003287965095651</v>
+        <v>0.3000412249114687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09100706928137345</v>
+        <v>0.1177606528206939</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.005501605474151051</v>
+        <v>-0.006327594711338681</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3692273437740617</v>
+        <v>0.4136753544966792</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6098915052671974</v>
+        <v>0.6596012517961874</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4784013894416777</v>
+        <v>0.4962020629998233</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9056195059754134</v>
+        <v>0.9410278896510443</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5098622169053297</v>
+        <v>0.4990852637659844</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4595954782323356</v>
+        <v>0.4725835044234103</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.154627890780803</v>
+        <v>1.142989248560728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5145204370648717</v>
+        <v>0.5251312791482056</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4182291319882588</v>
+        <v>0.4364980421654756</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9035291245998901</v>
+        <v>0.9349081122783801</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3088538942843168</v>
+        <v>-0.4430552031989101</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.171002158462803</v>
+        <v>-3.312712782714729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.246547593597708</v>
+        <v>5.641420903502543</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.347901054414042</v>
+        <v>-3.770394767071132</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.286684246296806</v>
+        <v>-4.904880328521259</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.015281322613346</v>
+        <v>8.829082089186761</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6857471057065592</v>
+        <v>-0.5773000847583263</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.203513134377411</v>
+        <v>-2.708738967559082</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.815944160978322</v>
+        <v>8.596442023085253</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.905449209185258</v>
+        <v>6.923948052849258</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.139067179308427</v>
+        <v>3.856484102215046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.2046723681511</v>
+        <v>13.20975994261651</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.176576741501144</v>
+        <v>5.962117515433696</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.307074382747561</v>
+        <v>4.475509143951802</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.2237080010684</v>
+        <v>18.1258805668289</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.108033609846979</v>
+        <v>5.182869799450077</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.234344328325931</v>
+        <v>3.054076129875244</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.51535128650936</v>
+        <v>14.6853986640943</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.01095672425173777</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4366978419454502</v>
+        <v>0.4366978419454505</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01499335559459367</v>
+        <v>-0.01380240708815508</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.120582423051132</v>
+        <v>-0.1213896713614415</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2011605385634183</v>
+        <v>0.2047024375724468</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1407662940180819</v>
+        <v>-0.1249145238965891</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1618634153282633</v>
+        <v>-0.159112458746767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2850171131554015</v>
+        <v>0.2787720453604127</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02705605571331959</v>
+        <v>-0.02058546451674938</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07998094642874461</v>
+        <v>-0.09640266459572829</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3146949640139818</v>
+        <v>0.3105173116252589</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2872614090274466</v>
+        <v>0.2965389486885306</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.180319681444532</v>
+        <v>0.1630699120527157</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5588256641814877</v>
+        <v>0.5574312073312673</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1972430623553944</v>
+        <v>0.2199014788395635</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1665338606712421</v>
+        <v>0.1726278906463049</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6987337500554981</v>
+        <v>0.6932899069061624</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2052540591746813</v>
+        <v>0.2048620248721699</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1293107762675373</v>
+        <v>0.1209930170598441</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5813313432587587</v>
+        <v>0.5965806783705937</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>7.691439865819339</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12.25507495746794</v>
+        <v>12.25507495746793</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.1428754874332</v>
@@ -1520,7 +1520,7 @@
         <v>8.796450734521782</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>16.5076937939932</v>
+        <v>16.50769379399319</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.962930854097485</v>
+        <v>-3.486068003516634</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.983618258867808</v>
+        <v>1.818335294146852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.135064334841814</v>
+        <v>6.205365382281236</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.64863705206757</v>
+        <v>6.125647549058487</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.973596919588611</v>
+        <v>5.71812699282712</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>14.8244814125033</v>
+        <v>14.54551235899981</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.268426851268479</v>
+        <v>4.072075306188134</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.669349370827618</v>
+        <v>4.762305806661522</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>12.2327834493824</v>
+        <v>12.544611960707</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.282758408690375</v>
+        <v>9.073289837757267</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.52681452983306</v>
+        <v>13.3109168900794</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.71309055286342</v>
+        <v>17.93926052593705</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.60345106160302</v>
+        <v>17.55483192920479</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.1844868266036</v>
+        <v>17.08142517381121</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>24.90352771227265</v>
+        <v>24.65423261324356</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.18273589165832</v>
+        <v>12.21115658401497</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.76468789877428</v>
+        <v>12.78357575595206</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.16229926701509</v>
+        <v>20.31856142941925</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.361384906403586</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5758088464235427</v>
+        <v>0.5758088464235425</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3538646411934596</v>
@@ -1625,7 +1625,7 @@
         <v>0.299752901516171</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.5625256437429431</v>
+        <v>0.5625256437429429</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1556634316462427</v>
+        <v>-0.1343555805310095</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07663343692583234</v>
+        <v>0.07222994075916377</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2582813810117184</v>
+        <v>0.2497508918056652</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1858136795663845</v>
+        <v>0.1621240872604208</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1544401188935244</v>
+        <v>0.1550042329404149</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3920134460289625</v>
+        <v>0.3918134738262974</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1306229370081803</v>
+        <v>0.1249185723191507</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1472527565621209</v>
+        <v>0.1484185476678714</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3778835267593869</v>
+        <v>0.3870944181553134</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4695365654712371</v>
+        <v>0.516299526517751</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7738707014408854</v>
+        <v>0.7538284849355598</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.058042808140586</v>
+        <v>0.988801072406274</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5699274276249687</v>
+        <v>0.5649261918243551</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5508671553427762</v>
+        <v>0.5549947968526485</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.805405906986249</v>
+        <v>0.8166475757607173</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4548119725025368</v>
+        <v>0.4483202168900304</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4783219788495203</v>
+        <v>0.477077303587206</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7547456392796931</v>
+        <v>0.7549530216020055</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>2.034845790584522</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.161651871612865</v>
+        <v>5.161651871612855</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.171403100513584</v>
@@ -1734,7 +1734,7 @@
         <v>1.418321856290572</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>5.817358640120752</v>
+        <v>5.817358640120745</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.4121848201852678</v>
+        <v>-0.3308494548357642</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.915156880804518</v>
+        <v>-0.7909089414735549</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6.465158200747611</v>
+        <v>6.402386762862064</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.833047100473525</v>
+        <v>2.829136743333234</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.326864572163587</v>
+        <v>-2.29903193277503</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.6703867941155066</v>
+        <v>1.141036975733939</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.304195417015859</v>
+        <v>2.853088298133018</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.505664872798338</v>
+        <v>-1.945707428096392</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.857082610022439</v>
+        <v>1.73297199791744</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.167942606583192</v>
+        <v>7.356484926431166</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.833980143329557</v>
+        <v>5.590732128760817</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21.42720095984813</v>
+        <v>21.65368842775655</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.01986367196532</v>
+        <v>10.75163868566777</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.031302774643744</v>
+        <v>6.402205800952637</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.133329912030327</v>
+        <v>9.565200734178267</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.619002840819922</v>
+        <v>9.758113774546274</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.992590662448753</v>
+        <v>5.231793926880517</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.588744617106792</v>
+        <v>9.793069655053451</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.04923316228368569</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1248863404897171</v>
+        <v>0.1248863404897168</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1817127860049055</v>
@@ -1839,7 +1839,7 @@
         <v>0.04176152679716561</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1712881865710699</v>
+        <v>0.1712881865710697</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1803610059962299</v>
+        <v>-0.1211866447099513</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2540823602240481</v>
+        <v>-0.2358376487514164</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.386353384247923</v>
+        <v>1.458499956860961</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.06702669621896785</v>
+        <v>0.06777907564822912</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.05346860612421095</v>
+        <v>-0.05105505544607485</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01684444488364789</v>
+        <v>0.02599078030795569</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06206789300004589</v>
+        <v>0.08006843408248998</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.06791342964259432</v>
+        <v>-0.05619969261882386</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.05225296877820878</v>
+        <v>0.05061623303121942</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.558378687353295</v>
+        <v>4.067343788622217</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.134546566672679</v>
+        <v>3.090054136374102</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>11.30164526836786</v>
+        <v>11.2373890245259</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2830594195819325</v>
+        <v>0.2728521602005759</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1528835935964741</v>
+        <v>0.1634268571178736</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2371057001349527</v>
+        <v>0.2424939958393198</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2947374522462581</v>
+        <v>0.3028019125259017</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1530483891505418</v>
+        <v>0.1602160728516303</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3004527140052469</v>
+        <v>0.3034413973220185</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>4.125575132696052</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12.60647845619294</v>
+        <v>12.60647845619295</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>5.167008415838464</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.542506530456575</v>
+        <v>2.381651957797648</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.18144751994626</v>
+        <v>2.15118496068171</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10.62955126073122</v>
+        <v>10.39540765907536</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.718127474079902</v>
+        <v>2.79502746673707</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.2951173981647127</v>
+        <v>0.2093469607428745</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.38850957904907</v>
+        <v>10.58753913195765</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.186633138157625</v>
+        <v>3.304748853468738</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.635197351090223</v>
+        <v>1.632655768609082</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>11.14878097642181</v>
+        <v>11.05547833881923</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.63420976532197</v>
+        <v>6.657673145068001</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.135803418258913</v>
+        <v>6.133420771354578</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15.02320619221704</v>
+        <v>14.75451758359323</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.318985147406332</v>
+        <v>7.345123587924429</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.033263946870177</v>
+        <v>4.798442009193919</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.79481112760098</v>
+        <v>14.80085824992644</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.514224059806025</v>
+        <v>6.572170126068339</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.013041970979907</v>
+        <v>4.82889045522172</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>14.24059179099984</v>
+        <v>14.23249210432478</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.2085008325638439</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.6371138978862076</v>
+        <v>0.637113897886208</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1541451485945748</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1247130542992592</v>
+        <v>0.1136353835594111</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1059228798501376</v>
+        <v>0.1037718932114571</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5143273518258266</v>
+        <v>0.4946397351050516</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.07725053143058441</v>
+        <v>0.08122274002423763</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.006168379524634048</v>
+        <v>0.005620412543310577</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2975407261224292</v>
+        <v>0.3025973568677491</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1155835433165129</v>
+        <v>0.1213900116610936</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.05769691859819701</v>
+        <v>0.05952592517724255</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4038518158215245</v>
+        <v>0.3995289441441453</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3603724708661976</v>
+        <v>0.3511882509857577</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3251238734851782</v>
+        <v>0.330815871645142</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8026598984276003</v>
+        <v>0.7743434141297125</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2242741966375628</v>
+        <v>0.2270993427071154</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1537132098088315</v>
+        <v>0.1484534160892485</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4604041889952212</v>
+        <v>0.4576831942359084</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2510122468286182</v>
+        <v>0.2548354761390138</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1923790482851375</v>
+        <v>0.1842780872659698</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.548463051219793</v>
+        <v>0.5479986908048784</v>
       </c>
     </row>
     <row r="46">
